--- a/logic/test/data/_input/05_model_parameters/mapping_sectors.xlsx
+++ b/logic/test/data/_input/05_model_parameters/mapping_sectors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Unit_RMA\MAP\_Modellen\E-MAP\05_Runs\_input\06_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Unit_RMA\MAP\_Modellen\E-MAP\05_Runs\_input\05_model_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4C6522-83B0-4459-9DD8-C583697274FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D664FEC2-C341-4017-830F-B711728306C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{35E93B04-AF71-4D50-96C2-80A5E8C17879}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{35E93B04-AF71-4D50-96C2-80A5E8C17879}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="283">
   <si>
     <t>GNFR</t>
   </si>
@@ -879,6 +879,12 @@
   </si>
   <si>
     <t>NFR_description</t>
+  </si>
+  <si>
+    <t>1A3bviii</t>
+  </si>
+  <si>
+    <t>Road transport: Resuspension</t>
   </si>
 </sst>
 </file>
@@ -1249,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A4F327-48B5-4ADF-AC81-6AE4C1AC9180}">
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129:B130"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,25 +2382,26 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E74" s="2"/>
       <c r="S74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
         <v>163</v>
@@ -2406,25 +2413,25 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D76" t="s">
         <v>164</v>
       </c>
       <c r="S76"/>
     </row>
-    <row r="77" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
         <v>169</v>
@@ -2434,27 +2441,27 @@
       </c>
       <c r="S77"/>
     </row>
-    <row r="78" spans="1:19" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
         <v>164</v>
       </c>
       <c r="S78"/>
     </row>
-    <row r="79" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
         <v>91</v>
@@ -2464,12 +2471,12 @@
       </c>
       <c r="S79"/>
     </row>
-    <row r="80" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
         <v>91</v>
@@ -2479,12 +2486,12 @@
       </c>
       <c r="S80"/>
     </row>
-    <row r="81" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C81" t="s">
         <v>91</v>
@@ -2494,12 +2501,12 @@
       </c>
       <c r="S81"/>
     </row>
-    <row r="82" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
         <v>91</v>
@@ -2511,10 +2518,10 @@
     </row>
     <row r="83" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
         <v>91</v>
@@ -2524,12 +2531,12 @@
       </c>
       <c r="S83"/>
     </row>
-    <row r="84" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2539,12 +2546,12 @@
       </c>
       <c r="S84"/>
     </row>
-    <row r="85" spans="1:19" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
         <v>91</v>
@@ -2554,12 +2561,12 @@
       </c>
       <c r="S85"/>
     </row>
-    <row r="86" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
         <v>91</v>
@@ -2569,27 +2576,27 @@
       </c>
       <c r="S86"/>
     </row>
-    <row r="87" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="S87"/>
     </row>
     <row r="88" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
         <v>192</v>
@@ -2599,12 +2606,12 @@
       </c>
       <c r="S88"/>
     </row>
-    <row r="89" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C89" t="s">
         <v>192</v>
@@ -2614,12 +2621,12 @@
       </c>
       <c r="S89"/>
     </row>
-    <row r="90" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
         <v>192</v>
@@ -2629,12 +2636,12 @@
       </c>
       <c r="S90"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
         <v>192</v>
@@ -2646,10 +2653,10 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C92" t="s">
         <v>192</v>
@@ -2661,10 +2668,10 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
         <v>192</v>
@@ -2676,10 +2683,10 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C94" t="s">
         <v>192</v>
@@ -2691,10 +2698,10 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C95" t="s">
         <v>192</v>
@@ -2706,10 +2713,10 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s">
         <v>192</v>
@@ -2721,10 +2728,10 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s">
         <v>192</v>
@@ -2736,10 +2743,10 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C98" t="s">
         <v>192</v>
@@ -2751,10 +2758,10 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C99" t="s">
         <v>192</v>
@@ -2766,10 +2773,10 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C100" t="s">
         <v>192</v>
@@ -2781,10 +2788,10 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B101" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s">
         <v>192</v>
@@ -2796,25 +2803,25 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="D102" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="S102"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C103" t="s">
         <v>223</v>
@@ -2826,10 +2833,10 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C104" t="s">
         <v>223</v>
@@ -2841,10 +2848,10 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B105" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C105" t="s">
         <v>223</v>
@@ -2856,10 +2863,10 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B106" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C106" t="s">
         <v>223</v>
@@ -2871,10 +2878,10 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B107" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
         <v>223</v>
@@ -2886,10 +2893,10 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C108" t="s">
         <v>223</v>
@@ -2901,10 +2908,10 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B109" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C109" t="s">
         <v>223</v>
@@ -2916,10 +2923,10 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B110" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C110" t="s">
         <v>223</v>
@@ -2931,10 +2938,10 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B111" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C111" t="s">
         <v>223</v>
@@ -2946,10 +2953,10 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C112" t="s">
         <v>223</v>
@@ -2961,10 +2968,10 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C113" t="s">
         <v>223</v>
@@ -2976,10 +2983,10 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C114" t="s">
         <v>223</v>
@@ -2991,13 +2998,13 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C115" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="D115" t="s">
         <v>224</v>
@@ -3006,10 +3013,10 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C116" t="s">
         <v>251</v>
@@ -3021,10 +3028,10 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C117" t="s">
         <v>251</v>
@@ -3036,10 +3043,10 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C118" t="s">
         <v>251</v>
@@ -3051,10 +3058,10 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B119" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C119" t="s">
         <v>251</v>
@@ -3066,10 +3073,10 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C120" t="s">
         <v>251</v>
@@ -3081,10 +3088,10 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C121" t="s">
         <v>251</v>
@@ -3096,10 +3103,10 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C122" t="s">
         <v>251</v>
@@ -3111,10 +3118,10 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B123" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C123" t="s">
         <v>251</v>
@@ -3126,10 +3133,10 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B124" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C124" t="s">
         <v>251</v>
@@ -3141,10 +3148,10 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B125" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C125" t="s">
         <v>251</v>
@@ -3156,10 +3163,10 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C126" t="s">
         <v>251</v>
@@ -3171,10 +3178,10 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B127" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C127" t="s">
         <v>251</v>
@@ -3186,18 +3193,33 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>274</v>
+      </c>
+      <c r="B128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" t="s">
+        <v>251</v>
+      </c>
+      <c r="D128" t="s">
+        <v>224</v>
+      </c>
+      <c r="S128"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>276</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>277</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>278</v>
       </c>
-      <c r="S128"/>
-    </row>
-    <row r="129" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S129"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S130"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
